--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H2">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I2">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J2">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.191103</v>
       </c>
       <c r="O2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q2">
-        <v>0.7524724366353331</v>
+        <v>0.597561181019</v>
       </c>
       <c r="R2">
-        <v>6.772251929717999</v>
+        <v>5.378050629171</v>
       </c>
       <c r="S2">
-        <v>0.00134235299988239</v>
+        <v>0.0005929082977865683</v>
       </c>
       <c r="T2">
-        <v>0.00134235299988239</v>
+        <v>0.0005929082977865681</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H3">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I3">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J3">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N3">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q3">
-        <v>2.404011287059333</v>
+        <v>25.34197798253034</v>
       </c>
       <c r="R3">
-        <v>21.636101583534</v>
+        <v>228.077801842773</v>
       </c>
       <c r="S3">
-        <v>0.004288571389225677</v>
+        <v>0.02514465381192324</v>
       </c>
       <c r="T3">
-        <v>0.004288571389225677</v>
+        <v>0.02514465381192324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H4">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I4">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J4">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N4">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O4">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P4">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q4">
-        <v>5.639013154681333</v>
+        <v>11.14902518128233</v>
       </c>
       <c r="R4">
-        <v>50.751118392132</v>
+        <v>100.341226631541</v>
       </c>
       <c r="S4">
-        <v>0.01005956611302579</v>
+        <v>0.01106221379866292</v>
       </c>
       <c r="T4">
-        <v>0.01005956611302579</v>
+        <v>0.01106221379866292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>271.318122</v>
       </c>
       <c r="I5">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J5">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,10 +750,10 @@
         <v>0.191103</v>
       </c>
       <c r="O5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q5">
         <v>5.761078563173999</v>
@@ -762,10 +762,10 @@
         <v>51.849707068566</v>
       </c>
       <c r="S5">
-        <v>0.0102773214211201</v>
+        <v>0.005716220184318794</v>
       </c>
       <c r="T5">
-        <v>0.0102773214211201</v>
+        <v>0.005716220184318793</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>271.318122</v>
       </c>
       <c r="I6">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J6">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N6">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q6">
-        <v>18.405588320862</v>
+        <v>244.321637249962</v>
       </c>
       <c r="R6">
-        <v>165.650294887758</v>
+        <v>2198.894735249658</v>
       </c>
       <c r="S6">
-        <v>0.03283415510551506</v>
+        <v>0.2424192378214347</v>
       </c>
       <c r="T6">
-        <v>0.03283415510551507</v>
+        <v>0.2424192378214347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>271.318122</v>
       </c>
       <c r="I7">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J7">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N7">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O7">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P7">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q7">
-        <v>43.173405723876</v>
+        <v>107.487587902954</v>
       </c>
       <c r="R7">
-        <v>388.5606515148841</v>
+        <v>967.3882911265861</v>
       </c>
       <c r="S7">
-        <v>0.07701803795993449</v>
+        <v>0.106650640639085</v>
       </c>
       <c r="T7">
-        <v>0.07701803795993448</v>
+        <v>0.106650640639085</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H8">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I8">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J8">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.191103</v>
       </c>
       <c r="O8">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P8">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q8">
-        <v>24.311249427476</v>
+        <v>6.381529424522999</v>
       </c>
       <c r="R8">
-        <v>218.801244847284</v>
+        <v>57.433764820707</v>
       </c>
       <c r="S8">
-        <v>0.04336940067304661</v>
+        <v>0.006331839932970019</v>
       </c>
       <c r="T8">
-        <v>0.04336940067304661</v>
+        <v>0.006331839932970017</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H9">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I9">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J9">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N9">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O9">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P9">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q9">
-        <v>77.669978567588</v>
+        <v>270.634343909949</v>
       </c>
       <c r="R9">
-        <v>699.0298071082921</v>
+        <v>2435.709095189542</v>
       </c>
       <c r="S9">
-        <v>0.1385572728712851</v>
+        <v>0.268527061775672</v>
       </c>
       <c r="T9">
-        <v>0.1385572728712851</v>
+        <v>0.268527061775672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H10">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I10">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J10">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N10">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O10">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P10">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q10">
-        <v>182.188009359224</v>
+        <v>119.063678346333</v>
       </c>
       <c r="R10">
-        <v>1639.692084233016</v>
+        <v>1071.573105116997</v>
       </c>
       <c r="S10">
-        <v>0.3250094076528618</v>
+        <v>0.1181365943754087</v>
       </c>
       <c r="T10">
-        <v>0.3250094076528618</v>
+        <v>0.1181365943754087</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H11">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I11">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J11">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1122,22 @@
         <v>0.191103</v>
       </c>
       <c r="O11">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P11">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q11">
-        <v>0.178940504369</v>
+        <v>0.09094150109733333</v>
       </c>
       <c r="R11">
-        <v>1.610464539321</v>
+        <v>0.8184735098760001</v>
       </c>
       <c r="S11">
-        <v>0.0003192161083191975</v>
+        <v>9.023338919343357E-05</v>
       </c>
       <c r="T11">
-        <v>0.0003192161083191975</v>
+        <v>9.023338919343355E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H12">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I12">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J12">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N12">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O12">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P12">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q12">
-        <v>0.571682059397</v>
+        <v>3.856739011354223</v>
       </c>
       <c r="R12">
-        <v>5.145138534573</v>
+        <v>34.71065110218801</v>
       </c>
       <c r="S12">
-        <v>0.00101983686052597</v>
+        <v>0.003826708686681534</v>
       </c>
       <c r="T12">
-        <v>0.00101983686052597</v>
+        <v>0.003826708686681534</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H13">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I13">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J13">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N13">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O13">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P13">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q13">
-        <v>1.340976504806</v>
+        <v>1.696745233732889</v>
       </c>
       <c r="R13">
-        <v>12.068788543254</v>
+        <v>15.270707103596</v>
       </c>
       <c r="S13">
-        <v>0.002392199031298859</v>
+        <v>0.001683533603361784</v>
       </c>
       <c r="T13">
-        <v>0.002392199031298858</v>
+        <v>0.001683533603361783</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H14">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I14">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J14">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.191103</v>
       </c>
       <c r="O14">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P14">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q14">
-        <v>16.953487463022</v>
+        <v>3.407063782847999</v>
       </c>
       <c r="R14">
-        <v>152.581387167198</v>
+        <v>30.663574045632</v>
       </c>
       <c r="S14">
-        <v>0.03024371876824632</v>
+        <v>0.003380534834096666</v>
       </c>
       <c r="T14">
-        <v>0.03024371876824632</v>
+        <v>0.003380534834096666</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H15">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I15">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J15">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N15">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O15">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P15">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q15">
-        <v>54.16327991808602</v>
+        <v>144.490201359424</v>
       </c>
       <c r="R15">
-        <v>487.4695192627741</v>
+        <v>1300.411812234816</v>
       </c>
       <c r="S15">
-        <v>0.09662312895687845</v>
+        <v>0.1433651349118185</v>
       </c>
       <c r="T15">
-        <v>0.09662312895687844</v>
+        <v>0.1433651349118185</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H16">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I16">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J16">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N16">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O16">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P16">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q16">
-        <v>127.049090660628</v>
+        <v>63.56744901740799</v>
       </c>
       <c r="R16">
-        <v>1143.441815945652</v>
+        <v>572.1070411566719</v>
       </c>
       <c r="S16">
-        <v>0.2266458140888341</v>
+        <v>0.06307248393758606</v>
       </c>
       <c r="T16">
-        <v>0.2266458140888341</v>
+        <v>0.06307248393758605</v>
       </c>
     </row>
   </sheetData>
